--- a/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B52BF-1355-41C5-8F75-51DC10D46F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE491F26-8270-4623-81C1-D6425DC0AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item|代币表" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="714" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="714" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Item|代币表" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
     <t>货币</t>
   </si>
   <si>
-    <t>999013|10145|10243|10343|10344|20142|20149|20242|20246|30151|30243|30291</t>
+    <t>999018|999013|10145|10243|10343|10344|20142|20149|20242|20246|30151|30243|30291</t>
   </si>
   <si>
     <t>item1</t>
@@ -614,13 +614,14 @@
     <t>异质物经验道具</t>
   </si>
   <si>
-    <t>10143|10146|10244|10345|20147|20148|20151|20253|20245|30150|30245|30292</t>
+    <t>999018|10143|10146|10244|10345|20147|20148|20151|20253|20245|30150|30245|30292</t>
   </si>
   <si>
     <t>jingyan1</t>
   </si>
   <si>
-    <t>在战斗中被击败的异质物残存于现实中的记忆结晶（小），对异质物使用后可为其提供100经验。</t>
+    <t>异质物『升级』材料
+在战斗中被击败的异质物残存于现实中的记忆结晶（小），对异质物使用后可为其提供100经验。</t>
   </si>
   <si>
     <t>索引_经验道具2</t>
@@ -632,7 +633,8 @@
     <t>jingyan2</t>
   </si>
   <si>
-    <t>在战斗中被击败的异质物残存于现实中的记忆结晶（中），对异质物使用后可为其提供500经验。</t>
+    <t>异质物『升级』材料
+在战斗中被击败的异质物残存于现实中的记忆结晶（中），对异质物使用后可为其提供500经验。</t>
   </si>
   <si>
     <t>索引_经验道具3</t>
@@ -644,7 +646,8 @@
     <t>jingyan3</t>
   </si>
   <si>
-    <t>在战斗中被击败的异质物残存于现实中的记忆结晶（大），对异质物使用后可为其提供3000经验。</t>
+    <t>异质物『升级』材料
+在战斗中被击败的异质物残存于现实中的记忆结晶（大），对异质物使用后可为其提供3000经验。</t>
   </si>
   <si>
     <t>索引_经验道具4</t>
@@ -656,7 +659,8 @@
     <t>jingyan4</t>
   </si>
   <si>
-    <t>在战斗中被击败的异质物残存于现实中的记忆结晶（特大），对异质物使用后可为其提供20000经验。</t>
+    <t>异质物『升级』材料
+在战斗中被击败的异质物残存于现实中的记忆结晶（特大），对异质物使用后可为其提供20000经验。</t>
   </si>
   <si>
     <t>索引_装备经验道具1</t>
@@ -671,7 +675,8 @@
     <t>item200011</t>
   </si>
   <si>
-    <t>共生型异质物力量的来源，能激发其固定特性。共生之种作为共生型异质物最初级特性，由共生型异质物分解产生，可与共生型异质物融合，使其获得10经验的提升。</t>
+    <t>『共生』异质物『升级』材料
+共生之种拥有共生型异质物最初级特性，可与共生型异质物融合，强化共生异质物的力量。将小型共生之种融合可获得10经验的提升。</t>
   </si>
   <si>
     <t>索引_装备经验道具2</t>
@@ -683,7 +688,8 @@
     <t>item200012</t>
   </si>
   <si>
-    <t>共生型异质物力量的来源，能激发其固定特性。共生之种作为共生型异质物最初级特性，由共生型异质物分解产生，可与共生型异质物融合，使其获得100经验的提升。</t>
+    <t>『共生』异质物『升级』材料
+共生之种拥有共生型异质物最初级特性，可与共生型异质物融合，强化共生异质物的力量。将中型共生之种融合可获得100经验的提升。</t>
   </si>
   <si>
     <t>索引_装备经验道具3</t>
@@ -695,7 +701,8 @@
     <t>item200013</t>
   </si>
   <si>
-    <t>共生型异质物力量的来源，能激发其固定特性。共生之种作为共生型异质物最初级特性，由共生型异质物分解产生，可与共生型异质物融合，使其获得1000经验的提升。</t>
+    <t>『共生』异质物『升级』材料
+共生之种拥有共生型异质物最初级特性，可与共生型异质物融合，强化共生异质物的力量。将大型共生之种融合可获得1000经验的提升。</t>
   </si>
   <si>
     <t>索引_抽卡券</t>
@@ -710,7 +717,7 @@
     <t>999013|999004|999005</t>
   </si>
   <si>
-    <t>在主角入队前，STS的战斗均需要依赖稳定剂才可以释放角色技能和异质物大招，并使用探测异质物的电梯。</t>
+    <t>『异质探测』的重要消耗品，可以帮助『超感者』短时间免疫精神絮乱。据说10个一起用效果更佳。</t>
   </si>
   <si>
     <t>索引_活动抽卡券</t>
@@ -848,7 +855,8 @@
     <t>item300101</t>
   </si>
   <si>
-    <t>导体是异质物潜意识活动的具象化产物，与其他异质物融合后可以得到对方的潜意识信息，能够帮助异质物突破自身上限。兴奋导体可以提高输出类异质物的上限。</t>
+    <t>异质物『开发』材料
+导体是异质物潜意识活动的具象化产物，可通过消耗导体对异质物进行开发，从而使异质物突破自身上限。兴奋导体可以提高输出类异质物的上限。</t>
   </si>
   <si>
     <t>1|100</t>
@@ -866,7 +874,8 @@
     <t>item300102</t>
   </si>
   <si>
-    <t>导体是异质物潜意识活动的具象化产物，与其他异质物融合后可以得到对方的潜意识信息，能够帮助异质物突破自身上限。抗躁导体可以提高防御类异质物的上限。</t>
+    <t>异质物『开发』材料
+导体是异质物潜意识活动的具象化产物，可通过消耗导体对异质物进行开发，从而使异质物突破自身上限。抗躁导体可以提高防御类异质物的上限。</t>
   </si>
   <si>
     <t>索引_开发材料一阶3</t>
@@ -881,7 +890,8 @@
     <t>item300103</t>
   </si>
   <si>
-    <t>导体是异质物潜意识活动的具象化产物，与其他异质物融合后可以得到对方的潜意识信息，能够帮助异质物突破自身上限。官能导体可以提高辅助类异质物的上限。</t>
+    <t>异质物『开发』材料
+导体是异质物潜意识活动的具象化产物，可通过消耗导体对异质物进行开发，从而使异质物突破自身上限。官能导体可以提高辅助类异质物的上限。</t>
   </si>
   <si>
     <t>索引_随机一阶</t>
@@ -893,7 +903,7 @@
     <t>99;111</t>
   </si>
   <si>
-    <t>装有随机初级导体的盒子,使用后随机获得一种初级的异质物导体</t>
+    <t>装有随机初级导体的盒子,使用后随机获得一种初级的异质物导体。</t>
   </si>
   <si>
     <t>索引_自选一阶</t>
@@ -905,7 +915,7 @@
     <t>99;121</t>
   </si>
   <si>
-    <t>装有初级导体的盒子,使用后可以选择获得一种初级的异质物导体</t>
+    <t>装有初级导体的盒子,使用后可以选择获得一种初级的异质物导体。</t>
   </si>
   <si>
     <t>索引_开发材料二阶1</t>
@@ -956,7 +966,7 @@
     <t>99;112</t>
   </si>
   <si>
-    <t>装有随机中级导体的盒子,使用后随机获得一种中级的异质物导体</t>
+    <t>装有随机中级导体的盒子,使用后随机获得一种中级的异质物导体。</t>
   </si>
   <si>
     <t>索引_自选二阶</t>
@@ -968,7 +978,7 @@
     <t>99;122</t>
   </si>
   <si>
-    <t>装有中级导体的盒子,使用后可以选择获得一种中级的异质物导体</t>
+    <t>装有中级导体的盒子,使用后可以选择获得一种中级的异质物导体。</t>
   </si>
   <si>
     <t>索引_开发材料三阶1</t>
@@ -1010,7 +1020,7 @@
     <t>99;113</t>
   </si>
   <si>
-    <t>装有随机高级导体的盒子,使用后随机获得一种高级的异质物导体</t>
+    <t>装有随机高级导体的盒子,使用后随机获得一种高级的异质物导体。</t>
   </si>
   <si>
     <t>索引_自选三阶</t>
@@ -1022,7 +1032,7 @@
     <t>99;123</t>
   </si>
   <si>
-    <t>装有高级导体的盒子,使用后可以选择获得一种高级的异质物导体</t>
+    <t>装有高级导体的盒子,使用后可以选择获得一种高级的异质物导体。</t>
   </si>
   <si>
     <t>索引_开发材料四阶1</t>
@@ -1064,7 +1074,7 @@
     <t>99;114</t>
   </si>
   <si>
-    <t>装有随机突变导体的盒子,使用后随机获得一种突变的异质物导体</t>
+    <t>装有随机突变导体的盒子,使用后随机获得一种突变的异质物导体。</t>
   </si>
   <si>
     <t>索引_自选四阶</t>
@@ -1076,7 +1086,7 @@
     <t>99;124</t>
   </si>
   <si>
-    <t>装有突变导体的盒子,使用后可以选择获得一种突变的异质物导体</t>
+    <t>装有突变导体的盒子,使用后可以选择获得一种突变的异质物导体。</t>
   </si>
   <si>
     <t>索引_通用礼物1</t>
@@ -1473,7 +1483,7 @@
   </si>
   <si>
     <t>2件套：攻击+10%
-3件套：释放必杀技时伤害提升30%,最多触发2次</t>
+3件套：释放必杀技时伤害提升30%，最多触发2次</t>
   </si>
   <si>
     <t>equip_suit_8</t>
@@ -1917,7 +1927,7 @@
   <si>
     <t>攻击型
 2件套：攻击+10%
-3件套：释放必杀技时伤害提升30%,最多触发2次</t>
+3件套：释放必杀技时伤害提升30%，最多触发2次</t>
   </si>
   <si>
     <t>索引_套装7防御品质2</t>
@@ -1928,7 +1938,7 @@
   <si>
     <t>防御型
 2件套：攻击+10%
-3件套：释放必杀技时伤害提升30%,最多触发2次</t>
+3件套：释放必杀技时伤害提升30%，最多触发2次</t>
   </si>
   <si>
     <t>索引_套装7生命品质2</t>
@@ -1939,7 +1949,7 @@
   <si>
     <t>生命型
 2件套：攻击+10%
-3件套：释放必杀技时伤害提升30%,最多触发2次</t>
+3件套：释放必杀技时伤害提升30%，最多触发2次</t>
   </si>
   <si>
     <t>索引_套装7攻击品质3</t>
@@ -2530,12 +2540,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3084,7 +3094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3246,6 +3256,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4383,7 +4399,7 @@
       <c r="A8">
         <v>10015</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>80</v>
       </c>
       <c r="C8" t="s">
@@ -4424,7 +4440,7 @@
       <c r="A9">
         <v>10016</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="57" t="s">
         <v>84</v>
       </c>
       <c r="C9" t="s">
@@ -6090,8 +6106,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6105,7 +6121,7 @@
     <col min="8" max="8" width="11.1333333333333" customWidth="1"/>
     <col min="10" max="10" width="7.63333333333333" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="13" max="13" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6292,7 +6308,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" ht="40.5" spans="1:17">
       <c r="A5">
         <v>200001</v>
       </c>
@@ -6329,7 +6345,7 @@
       <c r="L5" t="s">
         <v>176</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="54" t="s">
         <v>177</v>
       </c>
       <c r="P5">
@@ -6339,7 +6355,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" ht="40.5" spans="1:17">
       <c r="A6">
         <v>200002</v>
       </c>
@@ -6376,7 +6392,7 @@
       <c r="L6" t="s">
         <v>180</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="54" t="s">
         <v>181</v>
       </c>
       <c r="P6">
@@ -6386,7 +6402,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" ht="40.5" spans="1:17">
       <c r="A7">
         <v>200003</v>
       </c>
@@ -6423,7 +6439,7 @@
       <c r="L7" t="s">
         <v>184</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="54" t="s">
         <v>185</v>
       </c>
       <c r="P7">
@@ -6433,7 +6449,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" ht="40.5" spans="1:17">
       <c r="A8">
         <v>200004</v>
       </c>
@@ -6470,7 +6486,7 @@
       <c r="L8" t="s">
         <v>188</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="54" t="s">
         <v>189</v>
       </c>
       <c r="P8">
@@ -6480,7 +6496,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" ht="54" spans="1:17">
       <c r="A9">
         <v>200011</v>
       </c>
@@ -6517,7 +6533,7 @@
       <c r="L9" t="s">
         <v>193</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="55" t="s">
         <v>194</v>
       </c>
       <c r="P9">
@@ -6527,7 +6543,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:17">
+    <row r="10" customFormat="1" ht="54" spans="1:17">
       <c r="A10">
         <v>200012</v>
       </c>
@@ -6564,7 +6580,7 @@
       <c r="L10" t="s">
         <v>197</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="55" t="s">
         <v>198</v>
       </c>
       <c r="P10">
@@ -6574,7 +6590,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:17">
+    <row r="11" customFormat="1" ht="54" spans="1:17">
       <c r="A11">
         <v>200013</v>
       </c>
@@ -6611,7 +6627,7 @@
       <c r="L11" t="s">
         <v>201</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="55" t="s">
         <v>202</v>
       </c>
       <c r="P11">
@@ -7139,7 +7155,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:17">
+    <row r="23" ht="54.75" spans="1:17">
       <c r="A23">
         <v>300101</v>
       </c>
@@ -7173,7 +7189,7 @@
       <c r="L23" t="s">
         <v>252</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="54" t="s">
         <v>253</v>
       </c>
       <c r="N23" t="s">
@@ -7186,7 +7202,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:17">
+    <row r="24" ht="54.75" spans="1:17">
       <c r="A24">
         <v>300102</v>
       </c>
@@ -7220,7 +7236,7 @@
       <c r="L24" t="s">
         <v>258</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="54" t="s">
         <v>259</v>
       </c>
       <c r="N24" t="s">
@@ -7233,7 +7249,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:17">
+    <row r="25" ht="54.75" spans="1:17">
       <c r="A25">
         <v>300103</v>
       </c>
@@ -7267,7 +7283,7 @@
       <c r="L25" t="s">
         <v>263</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="54" t="s">
         <v>264</v>
       </c>
       <c r="N25" t="s">
@@ -7378,7 +7394,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="28" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A28" s="37">
         <v>300201</v>
       </c>
@@ -7412,7 +7428,7 @@
       <c r="L28" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="54" t="s">
         <v>253</v>
       </c>
       <c r="N28" s="37" t="s">
@@ -7425,7 +7441,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="29" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="29" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A29" s="37">
         <v>300202</v>
       </c>
@@ -7459,7 +7475,7 @@
       <c r="L29" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="54" t="s">
         <v>259</v>
       </c>
       <c r="N29" s="37" t="s">
@@ -7472,7 +7488,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="30" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="30" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A30" s="37">
         <v>300203</v>
       </c>
@@ -7506,7 +7522,7 @@
       <c r="L30" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="54" t="s">
         <v>264</v>
       </c>
       <c r="N30" s="37" t="s">
@@ -7617,7 +7633,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="33" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A33" s="37">
         <v>300301</v>
       </c>
@@ -7651,7 +7667,7 @@
       <c r="L33" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="54" t="s">
         <v>253</v>
       </c>
       <c r="N33" s="37" t="s">
@@ -7664,7 +7680,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="34" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="34" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A34" s="37">
         <v>300302</v>
       </c>
@@ -7698,7 +7714,7 @@
       <c r="L34" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="54" t="s">
         <v>259</v>
       </c>
       <c r="N34" s="37" t="s">
@@ -7711,7 +7727,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="35" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="35" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A35" s="37">
         <v>300303</v>
       </c>
@@ -7745,7 +7761,7 @@
       <c r="L35" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="54" t="s">
         <v>264</v>
       </c>
       <c r="N35" s="37" t="s">
@@ -7856,7 +7872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="38" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A38" s="37">
         <v>300401</v>
       </c>
@@ -7890,7 +7906,7 @@
       <c r="L38" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="54" t="s">
         <v>253</v>
       </c>
       <c r="N38" s="37" t="s">
@@ -7903,7 +7919,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="39" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="39" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A39" s="37">
         <v>300402</v>
       </c>
@@ -7937,7 +7953,7 @@
       <c r="L39" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="54" t="s">
         <v>259</v>
       </c>
       <c r="N39" s="37" t="s">
@@ -7950,7 +7966,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="40" s="37" customFormat="1" ht="14.25" spans="1:17">
+    <row r="40" s="37" customFormat="1" ht="54.75" spans="1:17">
       <c r="A40" s="37">
         <v>300403</v>
       </c>
@@ -7984,7 +8000,7 @@
       <c r="L40" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="54" t="s">
         <v>264</v>
       </c>
       <c r="N40" s="37" t="s">
@@ -8123,7 +8139,7 @@
       <c r="I43" s="44">
         <v>1</v>
       </c>
-      <c r="J43" s="54">
+      <c r="J43" s="56">
         <v>999002</v>
       </c>
       <c r="K43" s="44" t="s">
@@ -8170,7 +8186,7 @@
       <c r="I44" s="44">
         <v>1</v>
       </c>
-      <c r="J44" s="54">
+      <c r="J44" s="56">
         <v>999002</v>
       </c>
       <c r="K44" s="44" t="s">
@@ -8217,7 +8233,7 @@
       <c r="I45" s="44">
         <v>1</v>
       </c>
-      <c r="J45" s="54">
+      <c r="J45" s="56">
         <v>999002</v>
       </c>
       <c r="K45" s="44" t="s">
@@ -8264,7 +8280,7 @@
       <c r="I46" s="44">
         <v>1</v>
       </c>
-      <c r="J46" s="54">
+      <c r="J46" s="56">
         <v>999002</v>
       </c>
       <c r="K46" s="44" t="s">
@@ -8311,7 +8327,7 @@
       <c r="I47" s="44">
         <v>1</v>
       </c>
-      <c r="J47" s="54">
+      <c r="J47" s="56">
         <v>999002</v>
       </c>
       <c r="K47" s="44" t="s">
@@ -8358,7 +8374,7 @@
       <c r="I48" s="44">
         <v>1</v>
       </c>
-      <c r="J48" s="54">
+      <c r="J48" s="56">
         <v>999002</v>
       </c>
       <c r="K48" s="44" t="s">
@@ -8405,7 +8421,7 @@
       <c r="I49" s="44">
         <v>1</v>
       </c>
-      <c r="J49" s="54">
+      <c r="J49" s="56">
         <v>999002</v>
       </c>
       <c r="K49" s="44" t="s">
@@ -8452,7 +8468,7 @@
       <c r="I50" s="44">
         <v>1</v>
       </c>
-      <c r="J50" s="54">
+      <c r="J50" s="56">
         <v>999002</v>
       </c>
       <c r="K50" s="44" t="s">
@@ -8499,7 +8515,7 @@
       <c r="I51" s="44">
         <v>1</v>
       </c>
-      <c r="J51" s="54">
+      <c r="J51" s="56">
         <v>999002</v>
       </c>
       <c r="K51" s="44" t="s">
@@ -8546,7 +8562,7 @@
       <c r="I52" s="44">
         <v>1</v>
       </c>
-      <c r="J52" s="54">
+      <c r="J52" s="56">
         <v>999002</v>
       </c>
       <c r="K52" s="44" t="s">
@@ -8593,7 +8609,7 @@
       <c r="I53" s="44">
         <v>1</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="56">
         <v>999002</v>
       </c>
       <c r="K53" s="44" t="s">
@@ -8640,7 +8656,7 @@
       <c r="I54" s="44">
         <v>1</v>
       </c>
-      <c r="J54" s="54">
+      <c r="J54" s="56">
         <v>999002</v>
       </c>
       <c r="K54" s="44" t="s">
@@ -10796,8 +10812,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10805,7 +10821,7 @@
     <col min="1" max="1" width="8.38333333333333" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12" style="6" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="5" customWidth="1"/>
@@ -11019,7 +11035,7 @@
         <v>安江晨间新闻</v>
       </c>
       <c r="D5" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>445</v>
@@ -11059,7 +11075,7 @@
         <v>安江晨间新闻</v>
       </c>
       <c r="D6" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>445</v>
@@ -11099,7 +11115,7 @@
         <v>安江晨间新闻</v>
       </c>
       <c r="D7" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>445</v>
@@ -11139,7 +11155,7 @@
         <v>安江晨间新闻</v>
       </c>
       <c r="D8" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>445</v>
@@ -11179,7 +11195,7 @@
         <v>安江晨间新闻</v>
       </c>
       <c r="D9" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>445</v>
@@ -11220,7 +11236,7 @@
         <v>顶石吸血鬼</v>
       </c>
       <c r="D10" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>445</v>
@@ -11261,7 +11277,7 @@
         <v>顶石吸血鬼</v>
       </c>
       <c r="D11" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>445</v>
@@ -11302,7 +11318,7 @@
         <v>顶石吸血鬼</v>
       </c>
       <c r="D12" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>445</v>
@@ -11343,7 +11359,7 @@
         <v>顶石吸血鬼</v>
       </c>
       <c r="D13" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>445</v>
@@ -11384,7 +11400,7 @@
         <v>顶石吸血鬼</v>
       </c>
       <c r="D14" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>445</v>
@@ -11425,7 +11441,7 @@
         <v>0号公路</v>
       </c>
       <c r="D15" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>445</v>
@@ -11466,7 +11482,7 @@
         <v>0号公路</v>
       </c>
       <c r="D16" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>445</v>
@@ -11507,7 +11523,7 @@
         <v>0号公路</v>
       </c>
       <c r="D17" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>445</v>
@@ -11548,7 +11564,7 @@
         <v>0号公路</v>
       </c>
       <c r="D18" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>445</v>
@@ -11589,7 +11605,7 @@
         <v>0号公路</v>
       </c>
       <c r="D19" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>445</v>
@@ -11630,7 +11646,7 @@
         <v>门后注视者</v>
       </c>
       <c r="D20" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>445</v>
@@ -11671,7 +11687,7 @@
         <v>门后注视者</v>
       </c>
       <c r="D21" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>445</v>
@@ -11712,7 +11728,7 @@
         <v>门后注视者</v>
       </c>
       <c r="D22" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>445</v>
@@ -11753,7 +11769,7 @@
         <v>门后注视者</v>
       </c>
       <c r="D23" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>445</v>
@@ -11794,7 +11810,7 @@
         <v>门后注视者</v>
       </c>
       <c r="D24" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>445</v>
@@ -11835,7 +11851,7 @@
         <v>赠别古人杨柳</v>
       </c>
       <c r="D25" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>445</v>
@@ -11876,7 +11892,7 @@
         <v>赠别古人杨柳</v>
       </c>
       <c r="D26" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>445</v>
@@ -11917,7 +11933,7 @@
         <v>赠别古人杨柳</v>
       </c>
       <c r="D27" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>445</v>
@@ -11958,7 +11974,7 @@
         <v>赠别古人杨柳</v>
       </c>
       <c r="D28" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>445</v>
@@ -11999,7 +12015,7 @@
         <v>赠别古人杨柳</v>
       </c>
       <c r="D29" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>445</v>
@@ -12040,7 +12056,7 @@
         <v>温暖的被窝</v>
       </c>
       <c r="D30" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>445</v>
@@ -12081,7 +12097,7 @@
         <v>温暖的被窝</v>
       </c>
       <c r="D31" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>445</v>
@@ -12122,7 +12138,7 @@
         <v>温暖的被窝</v>
       </c>
       <c r="D32" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>445</v>
@@ -12163,7 +12179,7 @@
         <v>温暖的被窝</v>
       </c>
       <c r="D33" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>445</v>
@@ -12204,7 +12220,7 @@
         <v>温暖的被窝</v>
       </c>
       <c r="D34" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>445</v>
@@ -12245,7 +12261,7 @@
         <v>散播焦虑之人</v>
       </c>
       <c r="D35" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>445</v>
@@ -12286,7 +12302,7 @@
         <v>散播焦虑之人</v>
       </c>
       <c r="D36" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>445</v>
@@ -12327,7 +12343,7 @@
         <v>散播焦虑之人</v>
       </c>
       <c r="D37" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>445</v>
@@ -12368,7 +12384,7 @@
         <v>散播焦虑之人</v>
       </c>
       <c r="D38" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>445</v>
@@ -12409,7 +12425,7 @@
         <v>散播焦虑之人</v>
       </c>
       <c r="D39" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>445</v>
@@ -12450,7 +12466,7 @@
         <v>福音之鸟</v>
       </c>
       <c r="D40" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>445</v>
@@ -12491,7 +12507,7 @@
         <v>福音之鸟</v>
       </c>
       <c r="D41" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>445</v>
@@ -12532,7 +12548,7 @@
         <v>福音之鸟</v>
       </c>
       <c r="D42" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>445</v>
@@ -12573,7 +12589,7 @@
         <v>福音之鸟</v>
       </c>
       <c r="D43" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>445</v>
@@ -12614,7 +12630,7 @@
         <v>福音之鸟</v>
       </c>
       <c r="D44" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>445</v>
@@ -12655,7 +12671,7 @@
         <v>禁止三缺一</v>
       </c>
       <c r="D45" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>445</v>
@@ -12696,7 +12712,7 @@
         <v>禁止三缺一</v>
       </c>
       <c r="D46" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>445</v>
@@ -12737,7 +12753,7 @@
         <v>禁止三缺一</v>
       </c>
       <c r="D47" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>445</v>
@@ -12778,7 +12794,7 @@
         <v>禁止三缺一</v>
       </c>
       <c r="D48" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>445</v>
@@ -12819,7 +12835,7 @@
         <v>禁止三缺一</v>
       </c>
       <c r="D49" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>445</v>
@@ -12860,7 +12876,7 @@
         <v>《宫廷玉液》</v>
       </c>
       <c r="D50" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>445</v>
@@ -12901,7 +12917,7 @@
         <v>《宫廷玉液》</v>
       </c>
       <c r="D51" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>445</v>
@@ -12942,7 +12958,7 @@
         <v>《宫廷玉液》</v>
       </c>
       <c r="D52" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>445</v>
@@ -12983,7 +12999,7 @@
         <v>《宫廷玉液》</v>
       </c>
       <c r="D53" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>445</v>
@@ -13024,7 +13040,7 @@
         <v>《宫廷玉液》</v>
       </c>
       <c r="D54" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>445</v>
@@ -13065,7 +13081,7 @@
         <v>爱心早餐</v>
       </c>
       <c r="D55" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>445</v>
@@ -13106,7 +13122,7 @@
         <v>爱心早餐</v>
       </c>
       <c r="D56" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>445</v>
@@ -13147,7 +13163,7 @@
         <v>爱心早餐</v>
       </c>
       <c r="D57" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>445</v>
@@ -13188,7 +13204,7 @@
         <v>爱心早餐</v>
       </c>
       <c r="D58" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>445</v>
@@ -13229,7 +13245,7 @@
         <v>爱心早餐</v>
       </c>
       <c r="D59" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>445</v>
@@ -13270,7 +13286,7 @@
         <v>退行犬</v>
       </c>
       <c r="D60" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>445</v>
@@ -13311,7 +13327,7 @@
         <v>退行犬</v>
       </c>
       <c r="D61" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>445</v>
@@ -13352,7 +13368,7 @@
         <v>退行犬</v>
       </c>
       <c r="D62" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>445</v>
@@ -13393,7 +13409,7 @@
         <v>退行犬</v>
       </c>
       <c r="D63" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>445</v>
@@ -13434,7 +13450,7 @@
         <v>退行犬</v>
       </c>
       <c r="D64" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>445</v>
@@ -13461,7 +13477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="65" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A65" s="3">
         <v>700101</v>
       </c>
@@ -13503,7 +13519,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="66" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A66" s="3">
         <v>700102</v>
       </c>
@@ -13545,7 +13561,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="67" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A67" s="3">
         <v>700103</v>
       </c>
@@ -13587,7 +13603,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="68" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="68" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A68" s="3">
         <v>700104</v>
       </c>
@@ -13629,7 +13645,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="69" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="69" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A69" s="3">
         <v>700105</v>
       </c>
@@ -13671,7 +13687,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="70" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A70" s="3">
         <v>700106</v>
       </c>
@@ -13713,7 +13729,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="71" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A71" s="3">
         <v>700107</v>
       </c>
@@ -13754,7 +13770,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="72" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="72" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A72" s="3">
         <v>700108</v>
       </c>
@@ -13795,7 +13811,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="73" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A73" s="3">
         <v>700109</v>
       </c>
@@ -13836,7 +13852,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="74" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A74" s="3">
         <v>700110</v>
       </c>
@@ -13877,7 +13893,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="75" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="75" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A75" s="3">
         <v>700111</v>
       </c>
@@ -13918,7 +13934,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="76" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A76" s="3">
         <v>700112</v>
       </c>
@@ -13959,7 +13975,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="77" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="77" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A77" s="4">
         <v>700201</v>
       </c>
@@ -14002,7 +14018,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="78" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="78" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A78" s="4">
         <v>700202</v>
       </c>
@@ -14045,7 +14061,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="79" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="79" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A79" s="4">
         <v>700203</v>
       </c>
@@ -14088,7 +14104,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="80" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="80" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A80" s="4">
         <v>700204</v>
       </c>
@@ -14131,7 +14147,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="81" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="81" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A81" s="4">
         <v>700205</v>
       </c>
@@ -14174,7 +14190,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="82" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="82" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A82" s="4">
         <v>700206</v>
       </c>
@@ -14217,7 +14233,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="83" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="83" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A83" s="4">
         <v>700207</v>
       </c>
@@ -14259,7 +14275,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="84" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="84" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A84" s="4">
         <v>700208</v>
       </c>
@@ -14301,7 +14317,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="85" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="85" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A85" s="4">
         <v>700209</v>
       </c>
@@ -14343,7 +14359,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="86" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="86" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A86" s="4">
         <v>700210</v>
       </c>
@@ -14385,7 +14401,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="87" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A87" s="4">
         <v>700211</v>
       </c>
@@ -14427,7 +14443,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="88" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="88" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A88" s="4">
         <v>700212</v>
       </c>
@@ -14469,7 +14485,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="89" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="89" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A89" s="3">
         <v>700301</v>
       </c>
@@ -14512,7 +14528,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="90" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="90" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A90" s="3">
         <v>700302</v>
       </c>
@@ -14555,7 +14571,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="91" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="91" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A91" s="3">
         <v>700303</v>
       </c>
@@ -14598,7 +14614,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="92" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A92" s="3">
         <v>700304</v>
       </c>
@@ -14641,7 +14657,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="93" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A93" s="3">
         <v>700305</v>
       </c>
@@ -14684,7 +14700,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="94" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A94" s="3">
         <v>700306</v>
       </c>
@@ -14727,7 +14743,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="95" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="95" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A95" s="3">
         <v>700307</v>
       </c>
@@ -14769,7 +14785,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="96" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="96" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A96" s="3">
         <v>700308</v>
       </c>
@@ -14811,7 +14827,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="97" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="97" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A97" s="3">
         <v>700309</v>
       </c>
@@ -14853,7 +14869,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="98" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="98" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A98" s="3">
         <v>700310</v>
       </c>
@@ -14895,7 +14911,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="99" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="99" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A99" s="3">
         <v>700311</v>
       </c>
@@ -14937,7 +14953,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="100" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="100" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A100" s="3">
         <v>700312</v>
       </c>
@@ -14979,7 +14995,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="101" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="101" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A101" s="4">
         <v>700401</v>
       </c>
@@ -15022,7 +15038,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="102" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="102" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A102" s="4">
         <v>700402</v>
       </c>
@@ -15065,7 +15081,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="103" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="103" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A103" s="4">
         <v>700403</v>
       </c>
@@ -15108,7 +15124,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="104" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="104" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A104" s="4">
         <v>700404</v>
       </c>
@@ -15151,7 +15167,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="105" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="105" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A105" s="4">
         <v>700405</v>
       </c>
@@ -15194,7 +15210,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="106" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="106" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A106" s="4">
         <v>700406</v>
       </c>
@@ -15237,7 +15253,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="107" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="107" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A107" s="4">
         <v>700407</v>
       </c>
@@ -15279,7 +15295,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="108" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="108" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A108" s="4">
         <v>700408</v>
       </c>
@@ -15321,7 +15337,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="109" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="109" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A109" s="4">
         <v>700409</v>
       </c>
@@ -15363,7 +15379,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="110" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="110" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A110" s="4">
         <v>700410</v>
       </c>
@@ -15405,7 +15421,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="111" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="111" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A111" s="4">
         <v>700411</v>
       </c>
@@ -15447,7 +15463,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="112" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="112" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A112" s="4">
         <v>700412</v>
       </c>
@@ -15489,7 +15505,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="113" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="113" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A113" s="3">
         <v>700501</v>
       </c>
@@ -15532,7 +15548,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="114" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="114" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A114" s="3">
         <v>700502</v>
       </c>
@@ -15575,7 +15591,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="115" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="115" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A115" s="3">
         <v>700503</v>
       </c>
@@ -15618,7 +15634,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="116" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="116" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A116" s="3">
         <v>700504</v>
       </c>
@@ -15661,7 +15677,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="117" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="117" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A117" s="3">
         <v>700505</v>
       </c>
@@ -15704,7 +15720,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="118" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="118" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A118" s="3">
         <v>700506</v>
       </c>
@@ -15747,7 +15763,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="119" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="119" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A119" s="3">
         <v>700507</v>
       </c>
@@ -15789,7 +15805,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="120" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="120" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A120" s="3">
         <v>700508</v>
       </c>
@@ -15831,7 +15847,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="121" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="121" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A121" s="3">
         <v>700509</v>
       </c>
@@ -15873,7 +15889,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="122" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="122" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A122" s="3">
         <v>700510</v>
       </c>
@@ -15915,7 +15931,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="123" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="123" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A123" s="3">
         <v>700511</v>
       </c>
@@ -15957,7 +15973,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="124" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="124" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A124" s="3">
         <v>700512</v>
       </c>
@@ -15999,7 +16015,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="125" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="125" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A125" s="4">
         <v>700601</v>
       </c>
@@ -16042,7 +16058,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="126" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="126" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A126" s="4">
         <v>700602</v>
       </c>
@@ -16085,7 +16101,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="127" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="127" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A127" s="4">
         <v>700603</v>
       </c>
@@ -16128,7 +16144,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="128" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="128" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A128" s="4">
         <v>700604</v>
       </c>
@@ -16171,7 +16187,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="129" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="129" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A129" s="4">
         <v>700605</v>
       </c>
@@ -16214,7 +16230,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="130" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="130" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A130" s="4">
         <v>700606</v>
       </c>
@@ -16257,7 +16273,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="131" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="131" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A131" s="4">
         <v>700607</v>
       </c>
@@ -16299,7 +16315,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="132" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="132" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A132" s="4">
         <v>700608</v>
       </c>
@@ -16341,7 +16357,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="133" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="133" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A133" s="4">
         <v>700609</v>
       </c>
@@ -16383,7 +16399,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="134" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="134" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A134" s="4">
         <v>700610</v>
       </c>
@@ -16425,7 +16441,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="135" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="135" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A135" s="4">
         <v>700611</v>
       </c>
@@ -16467,7 +16483,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="136" s="4" customFormat="1" ht="48" spans="1:17">
+    <row r="136" s="4" customFormat="1" ht="60" spans="1:17">
       <c r="A136" s="4">
         <v>700612</v>
       </c>
@@ -16509,7 +16525,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="137" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="137" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A137" s="3">
         <v>700701</v>
       </c>
@@ -16552,7 +16568,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="138" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="138" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A138" s="3">
         <v>700702</v>
       </c>
@@ -16595,7 +16611,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="139" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="139" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A139" s="3">
         <v>700703</v>
       </c>
@@ -16638,7 +16654,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="140" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="140" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A140" s="3">
         <v>700704</v>
       </c>
@@ -16681,7 +16697,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="141" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="141" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A141" s="3">
         <v>700705</v>
       </c>
@@ -16724,7 +16740,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="142" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="142" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A142" s="3">
         <v>700706</v>
       </c>
@@ -16767,7 +16783,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="143" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="143" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A143" s="3">
         <v>700707</v>
       </c>
@@ -16809,7 +16825,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="144" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="144" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A144" s="3">
         <v>700708</v>
       </c>
@@ -16851,7 +16867,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="145" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="145" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A145" s="3">
         <v>700709</v>
       </c>
@@ -16893,7 +16909,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="146" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="146" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A146" s="3">
         <v>700710</v>
       </c>
@@ -16935,7 +16951,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="147" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="147" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A147" s="3">
         <v>700711</v>
       </c>
@@ -16977,7 +16993,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="148" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="148" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A148" s="3">
         <v>700712</v>
       </c>
@@ -17019,7 +17035,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="149" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="149" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A149" s="4">
         <v>700801</v>
       </c>
@@ -17062,7 +17078,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="150" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="150" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A150" s="4">
         <v>700802</v>
       </c>
@@ -17105,7 +17121,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="151" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="151" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A151" s="4">
         <v>700803</v>
       </c>
@@ -17148,7 +17164,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="152" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="152" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A152" s="4">
         <v>700804</v>
       </c>
@@ -17191,7 +17207,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="153" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="153" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A153" s="4">
         <v>700805</v>
       </c>
@@ -17234,7 +17250,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="154" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A154" s="4">
         <v>700806</v>
       </c>
@@ -17277,7 +17293,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="155" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="155" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A155" s="4">
         <v>700807</v>
       </c>
@@ -17319,7 +17335,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="156" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="156" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A156" s="4">
         <v>700808</v>
       </c>
@@ -17361,7 +17377,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="157" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="157" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A157" s="4">
         <v>700809</v>
       </c>
@@ -17403,7 +17419,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="158" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="158" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A158" s="4">
         <v>700810</v>
       </c>
@@ -17445,7 +17461,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="159" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="159" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A159" s="4">
         <v>700811</v>
       </c>
@@ -17487,7 +17503,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="160" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="160" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A160" s="4">
         <v>700812</v>
       </c>
@@ -17529,7 +17545,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="161" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="161" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A161" s="3">
         <v>700901</v>
       </c>
@@ -17572,7 +17588,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="162" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="162" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A162" s="3">
         <v>700902</v>
       </c>
@@ -17615,7 +17631,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="163" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A163" s="3">
         <v>700903</v>
       </c>
@@ -17658,7 +17674,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="164" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="164" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A164" s="3">
         <v>700904</v>
       </c>
@@ -17701,7 +17717,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="165" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A165" s="3">
         <v>700905</v>
       </c>
@@ -17744,7 +17760,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="166" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="166" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A166" s="3">
         <v>700906</v>
       </c>
@@ -17787,7 +17803,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="167" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="167" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A167" s="3">
         <v>700907</v>
       </c>
@@ -17829,7 +17845,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="168" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="168" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A168" s="3">
         <v>700908</v>
       </c>
@@ -17871,7 +17887,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="169" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="169" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A169" s="3">
         <v>700909</v>
       </c>
@@ -17913,7 +17929,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="170" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="170" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A170" s="3">
         <v>700910</v>
       </c>
@@ -17955,7 +17971,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="171" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="171" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A171" s="3">
         <v>700911</v>
       </c>
@@ -17997,7 +18013,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="172" s="3" customFormat="1" ht="48" spans="1:17">
+    <row r="172" s="3" customFormat="1" ht="60" spans="1:17">
       <c r="A172" s="3">
         <v>700912</v>
       </c>
@@ -18039,7 +18055,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="173" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="173" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A173" s="4">
         <v>701001</v>
       </c>
@@ -18082,7 +18098,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="174" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A174" s="4">
         <v>701002</v>
       </c>
@@ -18125,7 +18141,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="175" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="175" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A175" s="4">
         <v>701003</v>
       </c>
@@ -18168,7 +18184,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="176" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="176" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A176" s="4">
         <v>701004</v>
       </c>
@@ -18211,7 +18227,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="177" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="177" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A177" s="4">
         <v>701005</v>
       </c>
@@ -18254,7 +18270,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="178" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="178" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A178" s="4">
         <v>701006</v>
       </c>
@@ -18297,7 +18313,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="179" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="179" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A179" s="4">
         <v>701007</v>
       </c>
@@ -18339,7 +18355,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="180" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A180" s="4">
         <v>701008</v>
       </c>
@@ -18381,7 +18397,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="181" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A181" s="4">
         <v>701009</v>
       </c>
@@ -18423,7 +18439,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="182" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A182" s="4">
         <v>701010</v>
       </c>
@@ -18465,7 +18481,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="183" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="183" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A183" s="4">
         <v>701011</v>
       </c>
@@ -18507,7 +18523,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="184" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="184" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A184" s="4">
         <v>701012</v>
       </c>
@@ -18549,7 +18565,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="185" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="185" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A185" s="3">
         <v>701101</v>
       </c>
@@ -18592,7 +18608,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="186" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="186" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A186" s="3">
         <v>701102</v>
       </c>
@@ -18635,7 +18651,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="187" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="187" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A187" s="3">
         <v>701103</v>
       </c>
@@ -18678,7 +18694,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="188" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="188" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A188" s="3">
         <v>701104</v>
       </c>
@@ -18721,7 +18737,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="189" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="189" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A189" s="3">
         <v>701105</v>
       </c>
@@ -18764,7 +18780,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="190" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="190" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A190" s="3">
         <v>701106</v>
       </c>
@@ -18807,7 +18823,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="191" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="191" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A191" s="3">
         <v>701107</v>
       </c>
@@ -18849,7 +18865,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="192" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="192" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A192" s="3">
         <v>701108</v>
       </c>
@@ -18891,7 +18907,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="193" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="193" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A193" s="3">
         <v>701109</v>
       </c>
@@ -18933,7 +18949,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="194" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="194" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A194" s="3">
         <v>701110</v>
       </c>
@@ -18975,7 +18991,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="195" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="195" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A195" s="3">
         <v>701111</v>
       </c>
@@ -19017,7 +19033,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="196" s="3" customFormat="1" ht="36" spans="1:17">
+    <row r="196" s="3" customFormat="1" ht="48" spans="1:17">
       <c r="A196" s="3">
         <v>701112</v>
       </c>
@@ -19059,7 +19075,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="197" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="197" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A197" s="4">
         <v>701201</v>
       </c>
@@ -19102,7 +19118,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="198" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="198" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A198" s="4">
         <v>701202</v>
       </c>
@@ -19145,7 +19161,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="199" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="199" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A199" s="4">
         <v>701203</v>
       </c>
@@ -19188,7 +19204,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="200" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="200" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A200" s="4">
         <v>701204</v>
       </c>
@@ -19231,7 +19247,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="201" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="201" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A201" s="4">
         <v>701205</v>
       </c>
@@ -19274,7 +19290,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="202" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="202" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A202" s="4">
         <v>701206</v>
       </c>
@@ -19317,7 +19333,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="203" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="203" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A203" s="4">
         <v>701207</v>
       </c>
@@ -19359,7 +19375,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="204" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="204" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A204" s="4">
         <v>701208</v>
       </c>
@@ -19401,7 +19417,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="205" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="205" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A205" s="4">
         <v>701209</v>
       </c>
@@ -19443,7 +19459,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="206" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="206" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A206" s="4">
         <v>701210</v>
       </c>
@@ -19485,7 +19501,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="207" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="207" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A207" s="4">
         <v>701211</v>
       </c>
@@ -19527,7 +19543,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="208" s="4" customFormat="1" ht="36" spans="1:17">
+    <row r="208" s="4" customFormat="1" ht="48" spans="1:17">
       <c r="A208" s="4">
         <v>701212</v>
       </c>

--- a/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="714" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="13740" tabRatio="714"/>
   </bookViews>
   <sheets>
     <sheet name="Item|代币表" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
     <t>item4</t>
   </si>
   <si>
-    <t>玩家在组织内的知名度，通过不断地解决各种问题来提升。</t>
+    <t>玩家在组织内的知名度，达到一定数量后可以提升玩家等级，可以通过完成任务或消耗体力来获得。</t>
   </si>
   <si>
     <t>索引_约会券</t>
@@ -2540,12 +2540,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3094,7 +3094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3256,9 +3256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3620,12 +3617,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4399,7 +4396,7 @@
       <c r="A8">
         <v>10015</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>80</v>
       </c>
       <c r="C8" t="s">
@@ -4440,7 +4437,7 @@
       <c r="A9">
         <v>10016</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>84</v>
       </c>
       <c r="C9" t="s">
@@ -6106,7 +6103,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -6533,7 +6530,7 @@
       <c r="L9" t="s">
         <v>193</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="54" t="s">
         <v>194</v>
       </c>
       <c r="P9">
@@ -6580,7 +6577,7 @@
       <c r="L10" t="s">
         <v>197</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="54" t="s">
         <v>198</v>
       </c>
       <c r="P10">
@@ -6627,7 +6624,7 @@
       <c r="L11" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="54" t="s">
         <v>202</v>
       </c>
       <c r="P11">
@@ -8139,7 +8136,7 @@
       <c r="I43" s="44">
         <v>1</v>
       </c>
-      <c r="J43" s="56">
+      <c r="J43" s="55">
         <v>999002</v>
       </c>
       <c r="K43" s="44" t="s">
@@ -8186,7 +8183,7 @@
       <c r="I44" s="44">
         <v>1</v>
       </c>
-      <c r="J44" s="56">
+      <c r="J44" s="55">
         <v>999002</v>
       </c>
       <c r="K44" s="44" t="s">
@@ -8233,7 +8230,7 @@
       <c r="I45" s="44">
         <v>1</v>
       </c>
-      <c r="J45" s="56">
+      <c r="J45" s="55">
         <v>999002</v>
       </c>
       <c r="K45" s="44" t="s">
@@ -8280,7 +8277,7 @@
       <c r="I46" s="44">
         <v>1</v>
       </c>
-      <c r="J46" s="56">
+      <c r="J46" s="55">
         <v>999002</v>
       </c>
       <c r="K46" s="44" t="s">
@@ -8327,7 +8324,7 @@
       <c r="I47" s="44">
         <v>1</v>
       </c>
-      <c r="J47" s="56">
+      <c r="J47" s="55">
         <v>999002</v>
       </c>
       <c r="K47" s="44" t="s">
@@ -8374,7 +8371,7 @@
       <c r="I48" s="44">
         <v>1</v>
       </c>
-      <c r="J48" s="56">
+      <c r="J48" s="55">
         <v>999002</v>
       </c>
       <c r="K48" s="44" t="s">
@@ -8421,7 +8418,7 @@
       <c r="I49" s="44">
         <v>1</v>
       </c>
-      <c r="J49" s="56">
+      <c r="J49" s="55">
         <v>999002</v>
       </c>
       <c r="K49" s="44" t="s">
@@ -8468,7 +8465,7 @@
       <c r="I50" s="44">
         <v>1</v>
       </c>
-      <c r="J50" s="56">
+      <c r="J50" s="55">
         <v>999002</v>
       </c>
       <c r="K50" s="44" t="s">
@@ -8515,7 +8512,7 @@
       <c r="I51" s="44">
         <v>1</v>
       </c>
-      <c r="J51" s="56">
+      <c r="J51" s="55">
         <v>999002</v>
       </c>
       <c r="K51" s="44" t="s">
@@ -8562,7 +8559,7 @@
       <c r="I52" s="44">
         <v>1</v>
       </c>
-      <c r="J52" s="56">
+      <c r="J52" s="55">
         <v>999002</v>
       </c>
       <c r="K52" s="44" t="s">
@@ -8609,7 +8606,7 @@
       <c r="I53" s="44">
         <v>1</v>
       </c>
-      <c r="J53" s="56">
+      <c r="J53" s="55">
         <v>999002</v>
       </c>
       <c r="K53" s="44" t="s">
@@ -8656,7 +8653,7 @@
       <c r="I54" s="44">
         <v>1</v>
       </c>
-      <c r="J54" s="56">
+      <c r="J54" s="55">
         <v>999002</v>
       </c>
       <c r="K54" s="44" t="s">

--- a/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/002_道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13740" tabRatio="714"/>
+    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="714" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Item|代币表" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
   </si>
   <si>
     <t>『共生』异质物『升级』材料
-共生之种拥有共生型异质物最初级特性，可与共生型异质物融合，强化共生异质物的力量。将小型共生之种融合可获得10经验的提升。</t>
+共生之种拥有共生型异质物最初级特性，可强化共生异质物。将小型共生之种融合可获得10经验的提升。</t>
   </si>
   <si>
     <t>索引_装备经验道具2</t>
@@ -689,7 +689,7 @@
   </si>
   <si>
     <t>『共生』异质物『升级』材料
-共生之种拥有共生型异质物最初级特性，可与共生型异质物融合，强化共生异质物的力量。将中型共生之种融合可获得100经验的提升。</t>
+共生之种拥有共生型异质物最初级特性，可强化共生异质物。将中型共生之种融合可获得100经验的提升。</t>
   </si>
   <si>
     <t>索引_装备经验道具3</t>
@@ -702,7 +702,7 @@
   </si>
   <si>
     <t>『共生』异质物『升级』材料
-共生之种拥有共生型异质物最初级特性，可与共生型异质物融合，强化共生异质物的力量。将大型共生之种融合可获得1000经验的提升。</t>
+共生之种拥有共生型异质物最初级特性，可强化共生异质物。将大型共生之种融合可获得1000经验的提升。</t>
   </si>
   <si>
     <t>索引_抽卡券</t>
@@ -849,14 +849,14 @@
     <t>开发材料</t>
   </si>
   <si>
-    <t>999013|10141|10241|10341|20141|20145|20153|20241|20252|20249</t>
+    <t>999013|10141|10241|10341</t>
   </si>
   <si>
     <t>item300101</t>
   </si>
   <si>
     <t>异质物『开发』材料
-导体是异质物潜意识活动的具象化产物，可通过消耗导体对异质物进行开发，从而使异质物突破自身上限。兴奋导体可以提高输出类异质物的上限。</t>
+导体是异质物潜意识活动的具象化产物，可使异质物突破自身上限。兴奋导体可以提高输出类异质物的上限。</t>
   </si>
   <si>
     <t>1|100</t>
@@ -868,14 +868,14 @@
     <t>初级抗躁导体</t>
   </si>
   <si>
-    <t>999013|10142|10242|10342|20143|20147|20150|20243|20244|20247</t>
+    <t>999013|10142|10242|10342</t>
   </si>
   <si>
     <t>item300102</t>
   </si>
   <si>
     <t>异质物『开发』材料
-导体是异质物潜意识活动的具象化产物，可通过消耗导体对异质物进行开发，从而使异质物突破自身上限。抗躁导体可以提高防御类异质物的上限。</t>
+导体是异质物潜意识活动的具象化产物，可使异质物突破自身上限。抗躁导体可以提高防御类异质物的上限。</t>
   </si>
   <si>
     <t>索引_开发材料一阶3</t>
@@ -884,14 +884,14 @@
     <t>初级官能导体</t>
   </si>
   <si>
-    <t>999013|10144|10245|10346|20144|20152|20154|20251|20248|20250</t>
+    <t>999013|10144|10245|10346</t>
   </si>
   <si>
     <t>item300103</t>
   </si>
   <si>
     <t>异质物『开发』材料
-导体是异质物潜意识活动的具象化产物，可通过消耗导体对异质物进行开发，从而使异质物突破自身上限。官能导体可以提高辅助类异质物的上限。</t>
+导体是异质物潜意识活动的具象化产物，可使异质物突破自身上限。官能导体可以提高辅助类异质物的上限。</t>
   </si>
   <si>
     <t>索引_随机一阶</t>
@@ -924,7 +924,7 @@
     <t>中级兴奋导体</t>
   </si>
   <si>
-    <t>30141|30143|30146|30270</t>
+    <t>20141|20145|20153|20241|20252|20249|30141|30143|30146|30270</t>
   </si>
   <si>
     <t>item300201</t>
@@ -939,7 +939,7 @@
     <t>中级抗躁导体</t>
   </si>
   <si>
-    <t>30142|30145|30149|30244|30246</t>
+    <t>20143|20147|20150|20243|20244|20247|30142|30145|30149|30244|30246</t>
   </si>
   <si>
     <t>item300202</t>
@@ -951,7 +951,7 @@
     <t>中级官能导体</t>
   </si>
   <si>
-    <t>30152|30148|30153|30248|30247</t>
+    <t>20144|20152|20154|20251|20248|20250|30152|30148|30153|30248|30247</t>
   </si>
   <si>
     <t>item300203</t>
@@ -1793,7 +1793,7 @@
     <t>索引_套装5攻击品质2</t>
   </si>
   <si>
-    <t>赠别古人杨柳</t>
+    <t>赠别故人杨柳</t>
   </si>
   <si>
     <t>equip501</t>
@@ -3617,7 +3617,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -6103,8 +6103,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6118,7 +6118,7 @@
     <col min="8" max="8" width="11.1333333333333" customWidth="1"/>
     <col min="10" max="10" width="7.63333333333333" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="43.125" customWidth="1"/>
+    <col min="13" max="13" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6493,7 +6493,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="9" ht="54" spans="1:17">
+    <row r="9" ht="40.5" spans="1:17">
       <c r="A9">
         <v>200011</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="54" spans="1:17">
+    <row r="10" customFormat="1" ht="40.5" spans="1:17">
       <c r="A10">
         <v>200012</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="54" spans="1:17">
+    <row r="11" customFormat="1" ht="40.5" spans="1:17">
       <c r="A11">
         <v>200013</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="23" ht="54.75" spans="1:17">
+    <row r="23" ht="41.25" spans="1:17">
       <c r="A23">
         <v>300101</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="24" ht="54.75" spans="1:17">
+    <row r="24" ht="41.25" spans="1:17">
       <c r="A24">
         <v>300102</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="25" ht="54.75" spans="1:17">
+    <row r="25" ht="41.25" spans="1:17">
       <c r="A25">
         <v>300103</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="28" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A28" s="37">
         <v>300201</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="29" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="29" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A29" s="37">
         <v>300202</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="30" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="30" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A30" s="37">
         <v>300203</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="33" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A33" s="37">
         <v>300301</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="34" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="34" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A34" s="37">
         <v>300302</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="35" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="35" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A35" s="37">
         <v>300303</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="38" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A38" s="37">
         <v>300401</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="39" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="39" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A39" s="37">
         <v>300402</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="40" s="37" customFormat="1" ht="54.75" spans="1:17">
+    <row r="40" s="37" customFormat="1" ht="41.25" spans="1:17">
       <c r="A40" s="37">
         <v>300403</v>
       </c>
@@ -10809,8 +10809,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="24" spans="1:17">
+    <row r="10" s="2" customFormat="1" ht="36" spans="1:17">
       <c r="A10" s="2">
         <f t="shared" ref="A10:A15" si="2">A5+100</f>
         <v>700251</v>
@@ -11251,7 +11251,7 @@
         <v>448</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P10" s="24">
         <v>1</v>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="C25" s="14" t="str">
         <f t="shared" si="10"/>
-        <v>赠别古人杨柳</v>
+        <v>赠别故人杨柳</v>
       </c>
       <c r="D25" s="15">
         <v>7</v>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="C26" s="14" t="str">
         <f t="shared" ref="C26:C30" si="13">VLOOKUP(A26-50,$A$65:$C$208,3,0)</f>
-        <v>赠别古人杨柳</v>
+        <v>赠别故人杨柳</v>
       </c>
       <c r="D26" s="15">
         <v>7</v>
@@ -11927,7 +11927,7 @@
       </c>
       <c r="C27" s="14" t="str">
         <f t="shared" si="13"/>
-        <v>赠别古人杨柳</v>
+        <v>赠别故人杨柳</v>
       </c>
       <c r="D27" s="15">
         <v>7</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="C28" s="14" t="str">
         <f t="shared" si="13"/>
-        <v>赠别古人杨柳</v>
+        <v>赠别故人杨柳</v>
       </c>
       <c r="D28" s="15">
         <v>7</v>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="C29" s="14" t="str">
         <f t="shared" si="13"/>
-        <v>赠别古人杨柳</v>
+        <v>赠别故人杨柳</v>
       </c>
       <c r="D29" s="15">
         <v>7</v>
